--- a/ScoreCard_Development.xlsx
+++ b/ScoreCard_Development.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Praveen-Personal\Cricket\To Execution\Freelancer - Ramesh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Praveen-Personal\Cricket\To Execution\Freelancer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7248" tabRatio="624"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7248" tabRatio="839"/>
   </bookViews>
   <sheets>
     <sheet name="Login Module" sheetId="20" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="112">
   <si>
     <t>Select Bowler</t>
   </si>
@@ -263,9 +263,6 @@
 Scrollable similar to startv matches view ( refer to attached image )</t>
   </si>
   <si>
-    <t>cloud DB</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Cloud DB ( For now we will go with local DB )</t>
   </si>
@@ -274,12 +271,6 @@
   </si>
   <si>
     <t>Login</t>
-  </si>
-  <si>
-    <t>Login Module - 
-1. Login via Facebook or Gmail ; ( Register and Authenticate )
-2. Collect Profile details from gmail or facebook and insert into cricapp.
-3. Prompt user to verify profile details and confirm</t>
   </si>
   <si>
     <t>Login Page UI - Refer to new ZipGo user
@@ -290,31 +281,6 @@
 EmailID
 City
 Country</t>
-  </si>
-  <si>
-    <t>Validate Userlogin -  Once app is started 
-Step1 - Check already registered via facebook or Gmail ( need to check how this is working in zipgo or any other app using facebook or google login )
-     - If registered then goto STEP2  ( this should work even if no internet -- similar to Zipgo )
-     - If not Show Login Page ( for first time users ) - ( Similar to ZipGo app login page ) - for login we need internet
-     - on click of Facebook or Google it will redirect to their page for registration.
-on successful return  insert into userlogin details from facebook or google  and goto Step4
-Query used to insert data after 1st time registration
-INSERT INTO `userlogin` VALUES(nextval,'gmail or facebook', 'userid','','','',
-'username','emailid','contactno','city','country','currentdatetime','currentdatetime','Y');
-Step2 - If internet available then Update lastlogindate and then Check if we have user details in DB 
-     - If user details already captured  then goto Step3 
-     - If not then goto Step4
-     - If  internet is not available  move then go to Step3 )
-Query to update lastloginDate - 
-update userlogin set lastlogindate=currentdatetime  where userid=@userID and logintype='facebook or google or local'
-Query to check for userdetails – if usertype is ‘’ or null then user details has to be captured
-select usertype from userlogin where userid=@userID and logintype='facebook or google or local'
-Step3 - Redirect to Match List ( Add userID, User Name and Userrole into session which will be used in the rest of the pages )
-If userrole='admin' then redirect to matchlist or
-if userrole='matchofficial' then redirect to matchlist
-Step4 - Confirm User Details Page ( Update User Details )
-         Collect user details and then goto  Step3
-Query to Use -  Update userlogin set usertype=@usertype , emailid=@emailID, contactno=@contactno, city=@city, country=@country  where userid=@userID and logintype='facebook or google or local'</t>
   </si>
   <si>
     <t>Scorer user Logs In - After successful Login ( @UserID passed from login page )
@@ -470,6 +436,102 @@
 Step9- End Ball or End Over
 Step10 - Edit Section ( should be able to edit any ball of the match; By default can edit only the current over )
 At the end of step5a or step8 refresh ( Innings Summary ; Batting Summary ; Bowling Summary ; Ball-by-ball Summary ; StartBall section)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Login Module - 
+For First Time Users :
+1. Login via Facebook or Gmail ; ( Register and Authenticate )
+2. Collect Profile details from gmail or facebook and insert into cricapp.
+3. Prompt user to verify profile details and confirm
+Store User and Profile details in SQLLite
+For return users  check for userdata in SQLlite and redirect to  Match List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once app is started - 
+Step1 - Check already registered via facebook or Gmail ( need to check how this is working in zipgo or any other app using facebook or google login )
+            If already registered then goto Step2 
+            If new user then goto Step3
+Step2 - Update lastlogindate on SQLlite DB
+           Update and goto Step4
+Query to update lastloginDate - 
+update userlogin set lastlogindate=currentdatetime  where userid=@userID and logintype='facebook or google or local'
+Step3 – Should be connected to Internet for registration.
+- Login Page ( for first time users ) - ( Similar to ZipGo app login page ) - for login registration 
+     - on click of Facebook or Google it will redirect to their page for registration.
+After successful registration; Pull user details from Google or facebook 
+Confirm UserDetails Page – Populate data pulled from google/facebook and confirm the same from User.
+Insert userdetails into SQLLite and into cloud via Webservice
+Then goto Step4
+Step4 - Redirect to Match List  ( pull userrole from sqllite DB )
+If userrole='admin' then redirect to matchlist or
+if userrole='matchofficial' then redirect to matchlist
+else ‘no action for  now’
+---------------------
+Query used to insert data after 1st time registration
+INSERT INTO `userlogin` VALUES(nextval,'gmail or facebook', 'userid','','','',
+'username','emailid','contactno','city','country','currentdatetime','currentdatetime','Y');
+Query to update lastloginDate
+update userlogin set lastlogindate=currentdatetime  where userid=@userID and logintype='facebook or google or local'
+</t>
+  </si>
+  <si>
+    <t>API 
+UserProfile</t>
+  </si>
+  <si>
+    <t>Method :
+GetUserDetails</t>
+  </si>
+  <si>
+    <t>Method :
+UpdateUserDetails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method :
+RegisterNewUser </t>
+  </si>
+  <si>
+    <t>JSON Structure to collect userdetails data from mobile app and store on server side.
+Input - 
+`userloginid` ( system generated ), 'logintype' , `userid` , `password' , `usertype' , 'userrole' ( should be empty ), `username` , `emailid` , `contactno` , 'City' , 'COUNTRY' , 'registereddate'(systemdate ),'lastlogindate' '(systemdate ), `active` 
+Output - `userloginid`
+Step1 - check if userId already exist based on  'logintype' , `userid`
+If exist then Update user Details
+Else Insert UserDetails
+--------------------------------------------------
+Query to check if userID exist or not :
+Select `userloginid` from userlogin where  'logintype'=@ 'logintype' and  `userid`=@ `userid`
+Query for insert
+INSERT INTO `userlogin` VALUES(1,'gmail', 'praveen.venkatachalam@gmail.com','','matchofficial','admin',
+'Praveen Venkatachalam','v_praveen@hotmail.com','8861783995','bangalore','India','20/02/2016','','');
+Query to update :
+update userlogin set Usertype=@usertype , `username`=@`username`,emailid=@emailid,contactno=@contactno,city=@city,country=@country,lastlogindate=systemdate</t>
+  </si>
+  <si>
+    <t>Based on 'logintype'  and `userid` pull user details.
+Query used -
+select * from `userlogin`</t>
+  </si>
+  <si>
+    <t>Based on 'logintype'  and `userid` pull user details.
+update userlogin set Usertype=@usertype , `username`=@`username`,emailid=@emailid,contactno=@contactno,city=@city,country=@country,lastlogindate=systemdate</t>
+  </si>
+  <si>
+    <t>Used to prepoulate userdetails data on userdetails page;
+Edit User Profile Module</t>
+  </si>
+  <si>
+    <t>Used to update userdetails data
+Edit User Profile Module</t>
+  </si>
+  <si>
+    <t>Used on Login Module</t>
   </si>
 </sst>
 </file>
@@ -700,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -733,63 +795,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -798,6 +825,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1078,22 +1142,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="143.21875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="61.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="137.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="61.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -1101,30 +1164,97 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="12" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>78</v>
+    </row>
+    <row r="4" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="46"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="16"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="16" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1292,7 @@
         <v>71</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>25</v>
@@ -1176,16 +1306,16 @@
         <v>26</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>72</v>
@@ -1225,7 +1355,7 @@
         <v>71</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>25</v>
@@ -1236,48 +1366,48 @@
         <v>28</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="403.2" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="D5" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="D6" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1312,7 +1442,7 @@
         <v>71</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>25</v>
@@ -1320,19 +1450,19 @@
     </row>
     <row r="2" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1382,10 +1512,10 @@
       <c r="D3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="9" t="s">
         <v>34</v>
       </c>
@@ -1409,10 +1539,10 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="6">
         <v>3</v>
       </c>
@@ -1437,10 +1567,10 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="6">
         <v>10</v>
       </c>
@@ -1468,29 +1598,29 @@
       <c r="D6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="F7" s="20" t="s">
+      <c r="D7" s="42"/>
+      <c r="F7" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="9" t="s">
         <v>50</v>
       </c>
@@ -1508,14 +1638,14 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="F8" s="21" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="F8" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="6">
         <v>5.5</v>
       </c>
@@ -1536,14 +1666,14 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="F9" s="21" t="s">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="F9" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="22"/>
+      <c r="G9" s="45"/>
       <c r="H9" s="6">
         <v>5.5</v>
       </c>
@@ -1561,276 +1691,299 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="29">
+      <c r="A11" s="21">
         <v>0</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="29">
+      <c r="B11" s="36"/>
+      <c r="C11" s="21">
         <v>1</v>
       </c>
-      <c r="D11" s="30"/>
+      <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="37"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="F13" s="23" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="F13" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="32">
         <v>1</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="32">
         <v>4</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="32">
         <v>1</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="32">
         <v>2</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="32">
         <v>2</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="27">
+      <c r="A14" s="17">
         <v>2</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="27">
+      <c r="B14" s="20"/>
+      <c r="C14" s="17">
         <v>3</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="26"/>
+      <c r="D14" s="20"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="F15" s="27" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="F15" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27" t="s">
+      <c r="G15" s="17"/>
+      <c r="H15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27" t="s">
+      <c r="I15" s="17"/>
+      <c r="J15" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="17"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="19"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="17"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="27">
+      <c r="A18" s="17">
         <v>4</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="27">
+      <c r="B18" s="20"/>
+      <c r="C18" s="17">
         <v>6</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="F18" s="29" t="s">
+      <c r="D18" s="20"/>
+      <c r="F18" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="27" t="s">
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="27"/>
-      <c r="L18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="19"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="17"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="17"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="19"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="F22" s="17" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="F22" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="F24" s="17" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="F24" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="F26" s="17" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="F26" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
     </row>
     <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="A14:B17"/>
+    <mergeCell ref="C14:D17"/>
+    <mergeCell ref="F15:G17"/>
+    <mergeCell ref="H15:I17"/>
+    <mergeCell ref="J15:L17"/>
+    <mergeCell ref="A11:B13"/>
+    <mergeCell ref="C11:D13"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
     <mergeCell ref="A25:B28"/>
     <mergeCell ref="C25:D28"/>
     <mergeCell ref="F26:F27"/>
@@ -1845,29 +1998,6 @@
     <mergeCell ref="G22:L23"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:L25"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="A14:B17"/>
-    <mergeCell ref="C14:D17"/>
-    <mergeCell ref="F15:G17"/>
-    <mergeCell ref="H15:I17"/>
-    <mergeCell ref="J15:L17"/>
-    <mergeCell ref="A11:B13"/>
-    <mergeCell ref="C11:D13"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="C7:D9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
